--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>93.36490687113874</v>
+        <v>254.6695281450702</v>
       </c>
       <c r="R2">
-        <v>93.36490687113874</v>
+        <v>2292.025753305631</v>
       </c>
       <c r="S2">
-        <v>0.1508144675471335</v>
+        <v>0.2217677817807991</v>
       </c>
       <c r="T2">
-        <v>0.1508144675471335</v>
+        <v>0.2217677817807992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>194.6556253833573</v>
+        <v>432.3414245439204</v>
       </c>
       <c r="R3">
-        <v>194.6556253833573</v>
+        <v>3891.072820895283</v>
       </c>
       <c r="S3">
-        <v>0.3144316797505445</v>
+        <v>0.3764855551875808</v>
       </c>
       <c r="T3">
-        <v>0.3144316797505445</v>
+        <v>0.3764855551875809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H4">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>83.53494035907248</v>
+        <v>185.9712480077911</v>
       </c>
       <c r="R4">
-        <v>83.53494035907248</v>
+        <v>1673.74123207012</v>
       </c>
       <c r="S4">
-        <v>0.1349358980159759</v>
+        <v>0.1619448995177833</v>
       </c>
       <c r="T4">
-        <v>0.1349358980159759</v>
+        <v>0.1619448995177834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>20.53564931596406</v>
+        <v>27.60359308747734</v>
       </c>
       <c r="R5">
-        <v>20.53564931596406</v>
+        <v>248.432337787296</v>
       </c>
       <c r="S5">
-        <v>0.03317170359947257</v>
+        <v>0.02403737758803457</v>
       </c>
       <c r="T5">
-        <v>0.03317170359947257</v>
+        <v>0.02403737758803458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>42.81458413244537</v>
+        <v>46.86142407729466</v>
       </c>
       <c r="R6">
-        <v>42.81458413244537</v>
+        <v>421.752816695652</v>
       </c>
       <c r="S6">
-        <v>0.06915937610368596</v>
+        <v>0.04080721452780586</v>
       </c>
       <c r="T6">
-        <v>0.06915937610368596</v>
+        <v>0.04080721452780587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>18.3735441755597</v>
+        <v>20.15739650270667</v>
       </c>
       <c r="R7">
-        <v>18.3735441755597</v>
+        <v>181.41656852436</v>
       </c>
       <c r="S7">
-        <v>0.02967920575998936</v>
+        <v>0.0175531840870057</v>
       </c>
       <c r="T7">
-        <v>0.02967920575998936</v>
+        <v>0.0175531840870057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H8">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>41.66042335260742</v>
+        <v>52.73098154230222</v>
       </c>
       <c r="R8">
-        <v>41.66042335260742</v>
+        <v>474.5788338807201</v>
       </c>
       <c r="S8">
-        <v>0.0672950338223266</v>
+        <v>0.04591846104611003</v>
       </c>
       <c r="T8">
-        <v>0.0672950338223266</v>
+        <v>0.04591846104611005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H9">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>86.85742891201915</v>
+        <v>89.51910282965444</v>
       </c>
       <c r="R9">
-        <v>86.85742891201915</v>
+        <v>805.67192546689</v>
       </c>
       <c r="S9">
-        <v>0.140302789697619</v>
+        <v>0.07795378193118949</v>
       </c>
       <c r="T9">
-        <v>0.140302789697619</v>
+        <v>0.07795378193118951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H10">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>37.27418680872215</v>
+        <v>38.50655599641111</v>
       </c>
       <c r="R10">
-        <v>37.27418680872215</v>
+        <v>346.5590039677</v>
       </c>
       <c r="S10">
-        <v>0.06020984570325266</v>
+        <v>0.03353174433369101</v>
       </c>
       <c r="T10">
-        <v>0.06020984570325266</v>
+        <v>0.03353174433369103</v>
       </c>
     </row>
   </sheetData>
